--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Produtos orientais-mexicanos.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Produtos orientais-mexicanos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Macarrão Yakissoba Hinomoto 500g Cas Kirin</t>
+          <t>Molho P/yakissoba Sakura 500ml</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f44cc20-e1d3-4685-90a4-c95f32e0d25c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a8af4b3-ef89-4fc1-ba11-02b59a9e1975.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896007800896</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Macarrão De Arroz Bifun Alfa 200g</t>
+          <t>Macarrão Yakissoba Hinomoto 500g Cas Kirin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5162bc5-32cb-4ca0-ae6d-2ff4f5e86792.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f44cc20-e1d3-4685-90a4-c95f32e0d25c.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896181502043</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mist Flocada Alfa 200g Panko</t>
+          <t>Missô Aka Hinomoto Pote 500g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb1fd7e7-840a-4817-84e3-ad3ba3597bb1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea0e6d53-d200-408a-978a-8772acb0f1c9.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896181502968</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Macarrão Instantaneo Lamen Karui 78g Galinha Caipira</t>
+          <t>Massa Alimenticia De Arroz Karui 500g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62b8d2ba-9778-4070-9983-88e9d04dafe9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e7a662a-37bd-4437-80c7-3c3d7f05bd22.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7898270966965</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Molho P/yakissoba Sakura 500ml</t>
+          <t>Molho Sukiyaki Karui 250ml</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a8af4b3-ef89-4fc1-ba11-02b59a9e1975.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ab7c0ee-8e42-47a6-96da-dd00271fe348.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898270966958</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Missô Aka Hinomoto Pote 500g</t>
+          <t>Molho Tare Karui 250ml</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea0e6d53-d200-408a-978a-8772acb0f1c9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5297ac86-bbbb-46a6-b853-250f8d77237b.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7898270966958</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gergelim Misto Karui 100g</t>
+          <t>Molho Teriyaki Karui 250ml</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/661047b1-b42e-45a5-af99-714699a092b3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09d05599-414c-41be-908f-b73f670fe50a.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7898270966958</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gengibre Conserva Natural Healthy 110g</t>
+          <t>Arroz Caramelizado Karui 100g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d2499817-6444-4cf0-b053-8f5497eccb3d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54143889-9c2c-4a47-a662-2be835808b32.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7898270967702</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Alga Marinha Sidchen 23g Com 10 Folhas</t>
+          <t>Macarrão Instantaneo Lamen Karui 78g Galinha</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b313edb9-ec40-4410-9a1b-47921ec50469.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a445efaa-2c14-4af8-865f-7ebd2a1ec134.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7898270962172</t>
         </is>
       </c>
     </row>
@@ -704,7 +754,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Macarrão Instantaneo Lamen Karui 78g Galinha</t>
+          <t>Macarrão Instantaneo Lamen Karui 78g Galinha Caipira</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -714,7 +764,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a445efaa-2c14-4af8-865f-7ebd2a1ec134.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62b8d2ba-9778-4070-9983-88e9d04dafe9.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7898270962264</t>
         </is>
       </c>
     </row>
@@ -731,368 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Molho De Soja Kikkoman 150g Prat Quentes</t>
+          <t>Farinha Flocada Panko Da Terrinha 200g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5856376e-8c5d-4574-92de-023e06a256f8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Farinha Flocada Panko Da Terrinha 200g</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d7bfff25-08b1-4f20-a372-069eea105096.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Molho Tare Karui 250ml</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5297ac86-bbbb-46a6-b853-250f8d77237b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Arroz Caramelizado Karui 100g</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54143889-9c2c-4a47-a662-2be835808b32.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Macarrao Instantaneo Bifum 67g Carne</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4223bfe0-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Massa Alimenticia De Arroz Karui 500g</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e7a662a-37bd-4437-80c7-3c3d7f05bd22.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Raiz Forte Wasabi Karui 43g Bisnaga</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c821d30b-cf57-4b8c-abf3-e5246e47f337.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Alga Nori Karui 10 Folhas 27g</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 27,99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4348ad10-9a97-46ea-9bb2-12c6b06df20d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Algas Marinha P/sushi Yanor Taressu 25g</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27246838-3d8c-4721-ba52-cf522dc5ee08.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Molho Sukiyaki Karui 250ml</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ab7c0ee-8e42-47a6-96da-dd00271fe348.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Yopokki Bolinho Arroz 140g Temp Pimenta</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7550d755-f81e-4ac5-9eda-c73d3a422f33.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Caldo Royal Karui 120g Curry Forte</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>R$ 33,99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4373a8b-63c3-46f7-a270-d7a2445e7b16.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Caldo Royal Karui 120g Curry Medio</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>R$ 33,99</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/119917ec-efe1-4e39-860f-8d551332e057.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Produtos orientais/mexicanos</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Alga Marinha Karui 30g Wakame</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49123408-5806-47ee-be9c-690511248739.jpg</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7898693231398</t>
         </is>
       </c>
     </row>
